--- a/PPU/LAB6/lab6.xlsx
+++ b/PPU/LAB6/lab6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\PPU\LAB6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD897C8F-1C5F-49FE-B307-66EC59AD486D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EFB28B-458C-4A4E-BBC6-619FB18DA6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
